--- a/main/user_budget.xlsx
+++ b/main/user_budget.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,27 +441,19 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>budget</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
     </row>
   </sheetData>

--- a/main/user_budget.xlsx
+++ b/main/user_budget.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>budget</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2300</v>
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/main/user_budget.xlsx
+++ b/main/user_budget.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,31 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>budget</t>
         </is>
       </c>
@@ -461,7 +486,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2000</v>
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/main/user_budget.xlsx
+++ b/main/user_budget.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,11 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>budget</t>
         </is>
       </c>
@@ -501,7 +506,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4000</v>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/main/user_budget.xlsx
+++ b/main/user_budget.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,21 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>budget</t>
         </is>
       </c>
@@ -509,7 +524,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3000</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
